--- a/DML/Datos iniciales Catalogo y Parametro_V2.xlsx
+++ b/DML/Datos iniciales Catalogo y Parametro_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\SIPEFI\Base_Datos\DML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8C988E-52EA-432F-99D9-E17D04A7B93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E87FAB0-2EDA-4007-BBBC-2F6DBA2A8833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO.TC_AREA_CONOCIMIENTO" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="384">
   <si>
     <t>id_area_conocimiento</t>
   </si>
@@ -1190,17 +1190,27 @@
   </si>
   <si>
     <t>Recursos Educativos Abiertos</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1248,6 +1258,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1288,40 +1299,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -21154,7 +21166,7 @@
       <c r="I1000" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
@@ -21170,8 +21182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E898B86-5722-4D89-B435-E9CD76429040}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21203,8 +21215,8 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="19" t="s">
+        <v>383</v>
       </c>
       <c r="C2" t="s">
         <v>377</v>
@@ -27043,7 +27055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
